--- a/EverQuest2 (.NET)/EQ2Suite/Documents/dps.xlsx
+++ b/EverQuest2 (.NET)/EQ2Suite/Documents/dps.xlsx
@@ -19,7 +19,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A21" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0">
+    <comment ref="A53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Spell Name</t>
   </si>
@@ -360,6 +360,21 @@
   </si>
   <si>
     <t>Dark Nebula 24</t>
+  </si>
+  <si>
+    <t>Dark Nebula 25</t>
+  </si>
+  <si>
+    <t>Absolution 13</t>
+  </si>
+  <si>
+    <t>Absolution 14</t>
+  </si>
+  <si>
+    <t>Dark Nebula 26</t>
+  </si>
+  <si>
+    <t>Bewilderment</t>
   </si>
 </sst>
 </file>
@@ -721,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,7 +792,7 @@
         <v>4920</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">(C2+B2)/2</f>
+        <f t="shared" ref="D2:D18" si="0">(C2+B2)/2</f>
         <v>3840</v>
       </c>
       <c r="E2">
@@ -787,7 +802,7 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G17" si="1">D2/(E2+F2)</f>
+        <f t="shared" ref="G2:G18" si="1">D2/(E2+F2)</f>
         <v>2272.189349112426</v>
       </c>
       <c r="H2" s="3">
@@ -822,7 +837,7 @@
         <v>4544.3786982248521</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H49" si="2">G3</f>
+        <f t="shared" ref="H3:H52" si="2">G3</f>
         <v>4544.3786982248521</v>
       </c>
     </row>
@@ -1103,290 +1118,288 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>2269</v>
+      </c>
+      <c r="C13">
+        <v>3597</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="3">(C13+B13)/2</f>
+        <v>2933</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ref="G13" si="4">D13/(E13+F13)</f>
+        <v>4073.6111111111113</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13" si="5">G13</f>
+        <v>4073.6111111111113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>911+202*7</f>
         <v>2325</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>1096+376*7</f>
         <v>3728</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>3026.5</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.64</v>
       </c>
-      <c r="F13">
-        <v>0.4</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F14">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>2910.0961538461538</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>2910.0961538461538</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>1233+513*7</f>
         <v>4824</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f>1347+627*7</f>
         <v>5736</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>5280</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1.29</v>
       </c>
-      <c r="F14">
-        <v>0.4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>3124.2603550295858</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>3124.2603550295858</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>3822</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>6482</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>5152</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>1.61</v>
       </c>
-      <c r="F15">
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F16">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>2563.1840796019897</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>2563.1840796019897</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f>1210+294*6</f>
         <v>2974</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f>1630+546*6</f>
         <v>4906</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>3940</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>1.29</v>
       </c>
-      <c r="F16">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>2331.3609467455622</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>2331.3609467455622</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>4075</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>4821</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>4448</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>1.29</v>
       </c>
-      <c r="F17">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>2631.9526627218934</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="2"/>
         <v>2631.9526627218934</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3164</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4794</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D50" si="3">(C18+B18)/2</f>
+      <c r="D19">
+        <f t="shared" ref="D19:D53" si="6">(C19+B19)/2</f>
         <v>3979</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>1.29</v>
       </c>
-      <c r="F18">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18:G50" si="4">D18/(E18+F18)</f>
+      <c r="F19">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" ref="G19:G53" si="7">D19/(E19+F19)</f>
         <v>2354.4378698224855</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>2354.4378698224855</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f>2479+1759</f>
         <v>4238</v>
       </c>
-      <c r="C19">
-        <f>B19</f>
+      <c r="C20">
+        <f>B20</f>
         <v>4238</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
+      <c r="D20">
+        <f t="shared" si="6"/>
         <v>4238</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>1.29</v>
       </c>
-      <c r="F19">
-        <v>0.4</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="4"/>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="7"/>
         <v>2507.6923076923076</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>2507.6923076923076</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2297</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3648</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
+      <c r="D21">
+        <f t="shared" si="6"/>
         <v>2972.5</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>1.29</v>
       </c>
-      <c r="F20">
-        <v>0.4</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="4"/>
+      <c r="F21">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="7"/>
         <v>1758.8757396449705</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="2"/>
         <v>1758.8757396449705</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f>1767+1527*5</f>
         <v>9402</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f>3075+2835*5</f>
         <v>17250</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
+      <c r="D22">
+        <f t="shared" si="6"/>
         <v>13326</v>
-      </c>
-      <c r="E21">
-        <v>2.57</v>
-      </c>
-      <c r="F21">
-        <v>0.4</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="4"/>
-        <v>4486.8686868686873</v>
-      </c>
-      <c r="H21" s="3">
-        <f>G21*1.3</f>
-        <v>5832.9292929292933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <f>B21*2</f>
-        <v>18804</v>
-      </c>
-      <c r="C22">
-        <f>C21*2</f>
-        <v>34500</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:D25" si="5">(C22+B22)/2</f>
-        <v>26652</v>
       </c>
       <c r="E22">
         <v>2.57</v>
@@ -1395,29 +1408,29 @@
         <v>0.4</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22:G25" si="6">D22/(E22+F22)</f>
-        <v>8973.7373737373746</v>
+        <f t="shared" si="7"/>
+        <v>4486.8686868686873</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ref="H22:H37" si="7">G22*1.3</f>
-        <v>11665.858585858587</v>
+        <f>G22*1.3</f>
+        <v>5832.9292929292933</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <f>B21*3</f>
-        <v>28206</v>
+        <f>B22*2</f>
+        <v>18804</v>
       </c>
       <c r="C23">
-        <f>C21*3</f>
-        <v>51750</v>
+        <f>C22*2</f>
+        <v>34500</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
-        <v>39978</v>
+        <f t="shared" ref="D23:D26" si="8">(C23+B23)/2</f>
+        <v>26652</v>
       </c>
       <c r="E23">
         <v>2.57</v>
@@ -1426,29 +1439,29 @@
         <v>0.4</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="6"/>
-        <v>13460.606060606062</v>
+        <f t="shared" ref="G23:G26" si="9">D23/(E23+F23)</f>
+        <v>8973.7373737373746</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="7"/>
-        <v>17498.78787878788</v>
+        <f t="shared" ref="H23:H38" si="10">G23*1.3</f>
+        <v>11665.858585858587</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <f>B21*4</f>
-        <v>37608</v>
+        <f>B22*3</f>
+        <v>28206</v>
       </c>
       <c r="C24">
-        <f>C21*4</f>
-        <v>69000</v>
+        <f>C22*3</f>
+        <v>51750</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
-        <v>53304</v>
+        <f t="shared" si="8"/>
+        <v>39978</v>
       </c>
       <c r="E24">
         <v>2.57</v>
@@ -1457,29 +1470,29 @@
         <v>0.4</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="6"/>
-        <v>17947.474747474749</v>
+        <f t="shared" si="9"/>
+        <v>13460.606060606062</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="7"/>
-        <v>23331.717171717173</v>
+        <f t="shared" si="10"/>
+        <v>17498.78787878788</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <f>B21*5</f>
-        <v>47010</v>
+        <f>B22*4</f>
+        <v>37608</v>
       </c>
       <c r="C25">
-        <f>C21*5</f>
-        <v>86250</v>
+        <f>C22*4</f>
+        <v>69000</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
-        <v>66630</v>
+        <f t="shared" si="8"/>
+        <v>53304</v>
       </c>
       <c r="E25">
         <v>2.57</v>
@@ -1488,27 +1501,29 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="6"/>
-        <v>22434.343434343435</v>
+        <f t="shared" si="9"/>
+        <v>17947.474747474749</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="7"/>
-        <v>29164.646464646466</v>
+        <f t="shared" si="10"/>
+        <v>23331.717171717173</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>4206</v>
+        <f>B22*5</f>
+        <v>47010</v>
       </c>
       <c r="C26">
-        <v>7605</v>
+        <f>C22*5</f>
+        <v>86250</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>5905.5</v>
+        <f t="shared" si="8"/>
+        <v>66630</v>
       </c>
       <c r="E26">
         <v>2.57</v>
@@ -1517,29 +1532,27 @@
         <v>0.4</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="4"/>
-        <v>1988.3838383838386</v>
+        <f t="shared" si="9"/>
+        <v>22434.343434343435</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="7"/>
-        <v>2584.8989898989903</v>
+        <f t="shared" si="10"/>
+        <v>29164.646464646466</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <f>B26*2</f>
-        <v>8412</v>
+        <v>4206</v>
       </c>
       <c r="C27">
-        <f>C26*2</f>
-        <v>15210</v>
+        <v>7605</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D35" si="8">(C27+B27)/2</f>
-        <v>11811</v>
+        <f t="shared" si="6"/>
+        <v>5905.5</v>
       </c>
       <c r="E27">
         <v>2.57</v>
@@ -1548,29 +1561,29 @@
         <v>0.4</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G27:G35" si="9">D27/(E27+F27)</f>
-        <v>3976.7676767676771</v>
+        <f t="shared" si="7"/>
+        <v>1988.3838383838386</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="7"/>
-        <v>5169.7979797979806</v>
+        <f t="shared" si="10"/>
+        <v>2584.8989898989903</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <f>B26*3</f>
-        <v>12618</v>
+        <f>B27*2</f>
+        <v>8412</v>
       </c>
       <c r="C28">
-        <f>C26*3</f>
-        <v>22815</v>
+        <f>C27*2</f>
+        <v>15210</v>
       </c>
       <c r="D28">
-        <f t="shared" si="8"/>
-        <v>17716.5</v>
+        <f t="shared" ref="D28:D36" si="11">(C28+B28)/2</f>
+        <v>11811</v>
       </c>
       <c r="E28">
         <v>2.57</v>
@@ -1579,29 +1592,29 @@
         <v>0.4</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="9"/>
-        <v>5965.1515151515159</v>
+        <f t="shared" ref="G28:G36" si="12">D28/(E28+F28)</f>
+        <v>3976.7676767676771</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="7"/>
-        <v>7754.6969696969709</v>
+        <f t="shared" si="10"/>
+        <v>5169.7979797979806</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <f>B26*4</f>
-        <v>16824</v>
+        <f>B27*3</f>
+        <v>12618</v>
       </c>
       <c r="C29">
-        <f>C26*4</f>
-        <v>30420</v>
+        <f>C27*3</f>
+        <v>22815</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
-        <v>23622</v>
+        <f t="shared" si="11"/>
+        <v>17716.5</v>
       </c>
       <c r="E29">
         <v>2.57</v>
@@ -1610,29 +1623,29 @@
         <v>0.4</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="9"/>
-        <v>7953.5353535353543</v>
+        <f t="shared" si="12"/>
+        <v>5965.1515151515159</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="7"/>
-        <v>10339.595959595961</v>
+        <f t="shared" si="10"/>
+        <v>7754.6969696969709</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <f>B26*5</f>
-        <v>21030</v>
+        <f>B27*4</f>
+        <v>16824</v>
       </c>
       <c r="C30">
-        <f>C26*5</f>
-        <v>38025</v>
+        <f>C27*4</f>
+        <v>30420</v>
       </c>
       <c r="D30">
-        <f t="shared" si="8"/>
-        <v>29527.5</v>
+        <f t="shared" si="11"/>
+        <v>23622</v>
       </c>
       <c r="E30">
         <v>2.57</v>
@@ -1641,29 +1654,29 @@
         <v>0.4</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="9"/>
-        <v>9941.9191919191926</v>
+        <f t="shared" si="12"/>
+        <v>7953.5353535353543</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="7"/>
-        <v>12924.494949494951</v>
+        <f t="shared" si="10"/>
+        <v>10339.595959595961</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
-        <f>B26*6</f>
-        <v>25236</v>
+        <f>B27*5</f>
+        <v>21030</v>
       </c>
       <c r="C31">
-        <f>C26*6</f>
-        <v>45630</v>
+        <f>C27*5</f>
+        <v>38025</v>
       </c>
       <c r="D31">
-        <f t="shared" si="8"/>
-        <v>35433</v>
+        <f t="shared" si="11"/>
+        <v>29527.5</v>
       </c>
       <c r="E31">
         <v>2.57</v>
@@ -1672,29 +1685,29 @@
         <v>0.4</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="9"/>
-        <v>11930.303030303032</v>
+        <f t="shared" si="12"/>
+        <v>9941.9191919191926</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="7"/>
-        <v>15509.393939393942</v>
+        <f t="shared" si="10"/>
+        <v>12924.494949494951</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <f>B26*7</f>
-        <v>29442</v>
+        <f>B27*6</f>
+        <v>25236</v>
       </c>
       <c r="C32">
-        <f>C26*7</f>
-        <v>53235</v>
+        <f>C27*6</f>
+        <v>45630</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
-        <v>41338.5</v>
+        <f t="shared" si="11"/>
+        <v>35433</v>
       </c>
       <c r="E32">
         <v>2.57</v>
@@ -1703,29 +1716,29 @@
         <v>0.4</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="9"/>
-        <v>13918.686868686869</v>
+        <f t="shared" si="12"/>
+        <v>11930.303030303032</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="7"/>
-        <v>18094.292929292929</v>
+        <f t="shared" si="10"/>
+        <v>15509.393939393942</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <f>B26*8</f>
-        <v>33648</v>
+        <f>B27*7</f>
+        <v>29442</v>
       </c>
       <c r="C33">
-        <f>C26*8</f>
-        <v>60840</v>
+        <f>C27*7</f>
+        <v>53235</v>
       </c>
       <c r="D33">
-        <f t="shared" si="8"/>
-        <v>47244</v>
+        <f t="shared" si="11"/>
+        <v>41338.5</v>
       </c>
       <c r="E33">
         <v>2.57</v>
@@ -1734,29 +1747,29 @@
         <v>0.4</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="9"/>
-        <v>15907.070707070709</v>
+        <f t="shared" si="12"/>
+        <v>13918.686868686869</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="7"/>
-        <v>20679.191919191922</v>
+        <f t="shared" si="10"/>
+        <v>18094.292929292929</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <f>B26*9</f>
-        <v>37854</v>
+        <f>B27*8</f>
+        <v>33648</v>
       </c>
       <c r="C34">
-        <f>C26*9</f>
-        <v>68445</v>
+        <f>C27*8</f>
+        <v>60840</v>
       </c>
       <c r="D34">
-        <f t="shared" si="8"/>
-        <v>53149.5</v>
+        <f t="shared" si="11"/>
+        <v>47244</v>
       </c>
       <c r="E34">
         <v>2.57</v>
@@ -1765,29 +1778,29 @@
         <v>0.4</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="9"/>
-        <v>17895.454545454548</v>
+        <f t="shared" si="12"/>
+        <v>15907.070707070709</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="7"/>
-        <v>23264.090909090912</v>
+        <f t="shared" si="10"/>
+        <v>20679.191919191922</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <f>B26*10</f>
-        <v>42060</v>
+        <f>B27*9</f>
+        <v>37854</v>
       </c>
       <c r="C35">
-        <f>C26*10</f>
-        <v>76050</v>
+        <f>C27*9</f>
+        <v>68445</v>
       </c>
       <c r="D35">
-        <f t="shared" si="8"/>
-        <v>59055</v>
+        <f t="shared" si="11"/>
+        <v>53149.5</v>
       </c>
       <c r="E35">
         <v>2.57</v>
@@ -1796,29 +1809,29 @@
         <v>0.4</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="9"/>
-        <v>19883.838383838385</v>
+        <f t="shared" si="12"/>
+        <v>17895.454545454548</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="7"/>
-        <v>25848.989898989901</v>
+        <f t="shared" si="10"/>
+        <v>23264.090909090912</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B36">
-        <f>B26*11</f>
-        <v>46266</v>
+        <f>B27*10</f>
+        <v>42060</v>
       </c>
       <c r="C36">
-        <f>C26*11</f>
-        <v>83655</v>
+        <f>C27*10</f>
+        <v>76050</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D37" si="10">(C36+B36)/2</f>
-        <v>64960.5</v>
+        <f t="shared" si="11"/>
+        <v>59055</v>
       </c>
       <c r="E36">
         <v>2.57</v>
@@ -1827,29 +1840,29 @@
         <v>0.4</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" ref="G36:G37" si="11">D36/(E36+F36)</f>
-        <v>21872.222222222223</v>
+        <f t="shared" si="12"/>
+        <v>19883.838383838385</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="7"/>
-        <v>28433.888888888891</v>
+        <f t="shared" si="10"/>
+        <v>25848.989898989901</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <f>B26*12</f>
-        <v>50472</v>
+        <f>B27*11</f>
+        <v>46266</v>
       </c>
       <c r="C37">
-        <f>C26*12</f>
-        <v>91260</v>
+        <f>C27*11</f>
+        <v>83655</v>
       </c>
       <c r="D37">
-        <f t="shared" si="10"/>
-        <v>70866</v>
+        <f t="shared" ref="D37:D38" si="13">(C37+B37)/2</f>
+        <v>64960.5</v>
       </c>
       <c r="E37">
         <v>2.57</v>
@@ -1858,490 +1871,490 @@
         <v>0.4</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="11"/>
-        <v>23860.606060606064</v>
+        <f t="shared" ref="G37:G38" si="14">D37/(E37+F37)</f>
+        <v>21872.222222222223</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="7"/>
-        <v>31018.787878787884</v>
+        <f t="shared" si="10"/>
+        <v>28433.888888888891</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <f>B27*12</f>
+        <v>50472</v>
+      </c>
+      <c r="C38">
+        <f>C27*12</f>
+        <v>91260</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="13"/>
+        <v>70866</v>
+      </c>
+      <c r="E38">
+        <v>2.57</v>
+      </c>
+      <c r="F38">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="14"/>
+        <v>23860.606060606064</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="10"/>
+        <v>31018.787878787884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <f>B27*13</f>
+        <v>54678</v>
+      </c>
+      <c r="C39">
+        <f>C27*13</f>
+        <v>98865</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="15">(C39+B39)/2</f>
+        <v>76771.5</v>
+      </c>
+      <c r="E39">
+        <v>2.57</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ref="G39" si="16">D39/(E39+F39)</f>
+        <v>25848.989898989901</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39" si="17">G39*1.3</f>
+        <v>33603.686868686869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <f>B27*14</f>
+        <v>58884</v>
+      </c>
+      <c r="C40">
+        <f>C27*14</f>
+        <v>106470</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="18">(C40+B40)/2</f>
+        <v>82677</v>
+      </c>
+      <c r="E40">
+        <v>2.57</v>
+      </c>
+      <c r="F40">
+        <v>0.4</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40" si="19">D40/(E40+F40)</f>
+        <v>27837.373737373739</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40" si="20">G40*1.3</f>
+        <v>36188.585858585859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
-      <c r="B38">
+      <c r="B41">
         <v>6057</v>
       </c>
-      <c r="C38">
+      <c r="C41">
         <v>9936</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="3"/>
+      <c r="D41">
+        <f t="shared" si="6"/>
         <v>7996.5</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>3.22</v>
       </c>
-      <c r="F38">
-        <v>0.4</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="4"/>
+      <c r="F41">
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="7"/>
         <v>2208.9779005524861</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H41" s="3">
         <f t="shared" si="2"/>
         <v>2208.9779005524861</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="B39">
-        <f>B38*2</f>
+      <c r="B42">
+        <f>B41*2</f>
         <v>12114</v>
       </c>
-      <c r="C39">
-        <f>C38*2</f>
+      <c r="C42">
+        <f>C41*2</f>
         <v>19872</v>
       </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D49" si="12">(C39+B39)/2</f>
+      <c r="D42">
+        <f t="shared" ref="D42:D52" si="21">(C42+B42)/2</f>
         <v>15993</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>3.22</v>
       </c>
-      <c r="F39">
-        <v>0.4</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" ref="G39:G49" si="13">D39/(E39+F39)</f>
+      <c r="F42">
+        <v>0.4</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" ref="G42:G52" si="22">D42/(E42+F42)</f>
         <v>4417.9558011049721</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H42" s="3">
         <f t="shared" si="2"/>
         <v>4417.9558011049721</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B40">
-        <f>B38*3</f>
+      <c r="B43">
+        <f>B41*3</f>
         <v>18171</v>
       </c>
-      <c r="C40">
-        <f>C38*3</f>
+      <c r="C43">
+        <f>C41*3</f>
         <v>29808</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="12"/>
+      <c r="D43">
+        <f t="shared" si="21"/>
         <v>23989.5</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>3.22</v>
       </c>
-      <c r="F40">
-        <v>0.4</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="13"/>
+      <c r="F43">
+        <v>0.4</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="22"/>
         <v>6626.9337016574582</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H43" s="3">
         <f t="shared" si="2"/>
         <v>6626.9337016574582</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B41">
-        <f>B38*4</f>
+      <c r="B44">
+        <f>B41*4</f>
         <v>24228</v>
       </c>
-      <c r="C41">
-        <f>C38*4</f>
+      <c r="C44">
+        <f>C41*4</f>
         <v>39744</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="12"/>
+      <c r="D44">
+        <f t="shared" si="21"/>
         <v>31986</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>3.22</v>
       </c>
-      <c r="F41">
-        <v>0.4</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="13"/>
+      <c r="F44">
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="22"/>
         <v>8835.9116022099442</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H44" s="3">
         <f t="shared" si="2"/>
         <v>8835.9116022099442</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B42">
-        <f>B38*5</f>
+      <c r="B45">
+        <f>B41*5</f>
         <v>30285</v>
       </c>
-      <c r="C42">
-        <f>C38*5</f>
+      <c r="C45">
+        <f>C41*5</f>
         <v>49680</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="12"/>
+      <c r="D45">
+        <f t="shared" si="21"/>
         <v>39982.5</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>3.22</v>
       </c>
-      <c r="F42">
-        <v>0.4</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="13"/>
+      <c r="F45">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="22"/>
         <v>11044.889502762431</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H45" s="3">
         <f t="shared" si="2"/>
         <v>11044.889502762431</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B43">
-        <f>B38*6</f>
+      <c r="B46">
+        <f>B41*6</f>
         <v>36342</v>
       </c>
-      <c r="C43">
-        <f>C38*6</f>
+      <c r="C46">
+        <f>C41*6</f>
         <v>59616</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="12"/>
+      <c r="D46">
+        <f t="shared" si="21"/>
         <v>47979</v>
       </c>
-      <c r="E43">
+      <c r="E46">
         <v>3.22</v>
       </c>
-      <c r="F43">
-        <v>0.4</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="13"/>
+      <c r="F46">
+        <v>0.4</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="22"/>
         <v>13253.867403314916</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H46" s="3">
         <f t="shared" si="2"/>
         <v>13253.867403314916</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B44">
-        <f>B38*7</f>
+      <c r="B47">
+        <f>B41*7</f>
         <v>42399</v>
       </c>
-      <c r="C44">
-        <f>C38*7</f>
+      <c r="C47">
+        <f>C41*7</f>
         <v>69552</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="12"/>
+      <c r="D47">
+        <f t="shared" si="21"/>
         <v>55975.5</v>
       </c>
-      <c r="E44">
+      <c r="E47">
         <v>3.22</v>
       </c>
-      <c r="F44">
-        <v>0.4</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="13"/>
+      <c r="F47">
+        <v>0.4</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="22"/>
         <v>15462.845303867403</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H47" s="3">
         <f t="shared" si="2"/>
         <v>15462.845303867403</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B45">
-        <f>B38*8</f>
+      <c r="B48">
+        <f>B41*8</f>
         <v>48456</v>
       </c>
-      <c r="C45">
-        <f>C38*8</f>
+      <c r="C48">
+        <f>C41*8</f>
         <v>79488</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="12"/>
+      <c r="D48">
+        <f t="shared" si="21"/>
         <v>63972</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>3.22</v>
       </c>
-      <c r="F45">
-        <v>0.4</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="13"/>
+      <c r="F48">
+        <v>0.4</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="22"/>
         <v>17671.823204419888</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H48" s="3">
         <f t="shared" si="2"/>
         <v>17671.823204419888</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B46">
-        <f>B38*9</f>
+      <c r="B49">
+        <f>B41*9</f>
         <v>54513</v>
       </c>
-      <c r="C46">
-        <f>C38*9</f>
+      <c r="C49">
+        <f>C41*9</f>
         <v>89424</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="12"/>
+      <c r="D49">
+        <f t="shared" si="21"/>
         <v>71968.5</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>3.22</v>
       </c>
-      <c r="F46">
-        <v>0.4</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="13"/>
+      <c r="F49">
+        <v>0.4</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="22"/>
         <v>19880.801104972375</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H49" s="3">
         <f t="shared" si="2"/>
         <v>19880.801104972375</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="B47">
-        <f>B38*10</f>
+      <c r="B50">
+        <f>B41*10</f>
         <v>60570</v>
       </c>
-      <c r="C47">
-        <f>C38*10</f>
+      <c r="C50">
+        <f>C41*10</f>
         <v>99360</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="12"/>
+      <c r="D50">
+        <f t="shared" si="21"/>
         <v>79965</v>
       </c>
-      <c r="E47">
+      <c r="E50">
         <v>3.22</v>
       </c>
-      <c r="F47">
-        <v>0.4</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="13"/>
+      <c r="F50">
+        <v>0.4</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="22"/>
         <v>22089.779005524862</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H50" s="3">
         <f t="shared" si="2"/>
         <v>22089.779005524862</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B48">
-        <f>B38*11</f>
+      <c r="B51">
+        <f>B41*11</f>
         <v>66627</v>
       </c>
-      <c r="C48">
-        <f>C38*11</f>
+      <c r="C51">
+        <f>C41*11</f>
         <v>109296</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="12"/>
+      <c r="D51">
+        <f t="shared" si="21"/>
         <v>87961.5</v>
       </c>
-      <c r="E48">
+      <c r="E51">
         <v>3.22</v>
       </c>
-      <c r="F48">
-        <v>0.4</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="13"/>
+      <c r="F51">
+        <v>0.4</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="22"/>
         <v>24298.756906077346</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H51" s="3">
         <f t="shared" si="2"/>
         <v>24298.756906077346</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="B49">
-        <f>B38*12</f>
+      <c r="B52">
+        <f>B41*12</f>
         <v>72684</v>
       </c>
-      <c r="C49">
-        <f>C38*12</f>
+      <c r="C52">
+        <f>C41*12</f>
         <v>119232</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="12"/>
+      <c r="D52">
+        <f t="shared" si="21"/>
         <v>95958</v>
       </c>
-      <c r="E49">
+      <c r="E52">
         <v>3.22</v>
       </c>
-      <c r="F49">
-        <v>0.4</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="13"/>
+      <c r="F52">
+        <v>0.4</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="22"/>
         <v>26507.734806629833</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H52" s="3">
         <f t="shared" si="2"/>
         <v>26507.734806629833</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50">
-        <v>1801</v>
-      </c>
-      <c r="C50">
-        <v>3138</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="3"/>
-        <v>2469.5</v>
-      </c>
-      <c r="E50">
-        <v>1.93</v>
-      </c>
-      <c r="F50">
-        <v>0.4</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="4"/>
-        <v>1059.8712446351931</v>
-      </c>
-      <c r="H50" s="3">
-        <f>G50*1.3</f>
-        <v>1377.8326180257511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <f>B50*2</f>
-        <v>3602</v>
-      </c>
-      <c r="C51">
-        <f>C50*2</f>
-        <v>6276</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ref="D51:D59" si="14">(C51+B51)/2</f>
-        <v>4939</v>
-      </c>
-      <c r="E51">
-        <v>1.93</v>
-      </c>
-      <c r="F51">
-        <v>0.4</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" ref="G51:G59" si="15">D51/(E51+F51)</f>
-        <v>2119.7424892703862</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" ref="H51:H73" si="16">G51*1.3</f>
-        <v>2755.6652360515022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <f>B50*3</f>
-        <v>5403</v>
-      </c>
-      <c r="C52">
-        <f>C50*3</f>
-        <v>9414</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="14"/>
-        <v>7408.5</v>
-      </c>
-      <c r="E52">
-        <v>1.93</v>
-      </c>
-      <c r="F52">
-        <v>0.4</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="15"/>
-        <v>3179.6137339055795</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="16"/>
-        <v>4133.4978540772536</v>
-      </c>
-    </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <f>B50*4</f>
-        <v>7204</v>
+        <v>1801</v>
       </c>
       <c r="C53">
-        <f>C50*4</f>
-        <v>12552</v>
+        <v>3138</v>
       </c>
       <c r="D53">
-        <f t="shared" si="14"/>
-        <v>9878</v>
+        <f t="shared" si="6"/>
+        <v>2469.5</v>
       </c>
       <c r="E53">
         <v>1.93</v>
@@ -2350,29 +2363,29 @@
         <v>0.4</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="15"/>
-        <v>4239.4849785407723</v>
+        <f t="shared" si="7"/>
+        <v>1059.8712446351931</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="16"/>
-        <v>5511.3304721030045</v>
+        <f>G53*1.3</f>
+        <v>1377.8326180257511</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <f>B50*5</f>
-        <v>9005</v>
+        <f>B53*2</f>
+        <v>3602</v>
       </c>
       <c r="C54">
-        <f>C50*5</f>
-        <v>15690</v>
+        <f>C53*2</f>
+        <v>6276</v>
       </c>
       <c r="D54">
-        <f t="shared" si="14"/>
-        <v>12347.5</v>
+        <f t="shared" ref="D54:D62" si="23">(C54+B54)/2</f>
+        <v>4939</v>
       </c>
       <c r="E54">
         <v>1.93</v>
@@ -2381,29 +2394,29 @@
         <v>0.4</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="15"/>
-        <v>5299.3562231759652</v>
+        <f t="shared" ref="G54:G62" si="24">D54/(E54+F54)</f>
+        <v>2119.7424892703862</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="16"/>
-        <v>6889.1630901287554</v>
+        <f t="shared" ref="H54:H76" si="25">G54*1.3</f>
+        <v>2755.6652360515022</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <f>B50*6</f>
-        <v>10806</v>
+        <f>B53*3</f>
+        <v>5403</v>
       </c>
       <c r="C55">
-        <f>C50*6</f>
-        <v>18828</v>
+        <f>C53*3</f>
+        <v>9414</v>
       </c>
       <c r="D55">
-        <f t="shared" si="14"/>
-        <v>14817</v>
+        <f t="shared" si="23"/>
+        <v>7408.5</v>
       </c>
       <c r="E55">
         <v>1.93</v>
@@ -2412,29 +2425,29 @@
         <v>0.4</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="15"/>
-        <v>6359.2274678111589</v>
+        <f t="shared" si="24"/>
+        <v>3179.6137339055795</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="16"/>
-        <v>8266.9957081545072</v>
+        <f t="shared" si="25"/>
+        <v>4133.4978540772536</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <f>B50*7</f>
-        <v>12607</v>
+        <f>B53*4</f>
+        <v>7204</v>
       </c>
       <c r="C56">
-        <f>C50*7</f>
-        <v>21966</v>
+        <f>C53*4</f>
+        <v>12552</v>
       </c>
       <c r="D56">
-        <f t="shared" si="14"/>
-        <v>17286.5</v>
+        <f t="shared" si="23"/>
+        <v>9878</v>
       </c>
       <c r="E56">
         <v>1.93</v>
@@ -2443,29 +2456,29 @@
         <v>0.4</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="15"/>
-        <v>7419.0987124463518</v>
+        <f t="shared" si="24"/>
+        <v>4239.4849785407723</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="16"/>
-        <v>9644.8283261802571</v>
+        <f t="shared" si="25"/>
+        <v>5511.3304721030045</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <f>B50*8</f>
-        <v>14408</v>
+        <f>B53*5</f>
+        <v>9005</v>
       </c>
       <c r="C57">
-        <f>C50*8</f>
-        <v>25104</v>
+        <f>C53*5</f>
+        <v>15690</v>
       </c>
       <c r="D57">
-        <f t="shared" si="14"/>
-        <v>19756</v>
+        <f t="shared" si="23"/>
+        <v>12347.5</v>
       </c>
       <c r="E57">
         <v>1.93</v>
@@ -2474,29 +2487,29 @@
         <v>0.4</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="15"/>
-        <v>8478.9699570815446</v>
+        <f t="shared" si="24"/>
+        <v>5299.3562231759652</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="16"/>
-        <v>11022.660944206009</v>
+        <f t="shared" si="25"/>
+        <v>6889.1630901287554</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <f>B50*9</f>
-        <v>16209</v>
+        <f>B53*6</f>
+        <v>10806</v>
       </c>
       <c r="C58">
-        <f>C50*9</f>
-        <v>28242</v>
+        <f>C53*6</f>
+        <v>18828</v>
       </c>
       <c r="D58">
-        <f t="shared" si="14"/>
-        <v>22225.5</v>
+        <f t="shared" si="23"/>
+        <v>14817</v>
       </c>
       <c r="E58">
         <v>1.93</v>
@@ -2505,29 +2518,29 @@
         <v>0.4</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="15"/>
-        <v>9538.8412017167375</v>
+        <f t="shared" si="24"/>
+        <v>6359.2274678111589</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="16"/>
-        <v>12400.493562231759</v>
+        <f t="shared" si="25"/>
+        <v>8266.9957081545072</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <f>B50*10</f>
-        <v>18010</v>
+        <f>B53*7</f>
+        <v>12607</v>
       </c>
       <c r="C59">
-        <f>C50*10</f>
-        <v>31380</v>
+        <f>C53*7</f>
+        <v>21966</v>
       </c>
       <c r="D59">
-        <f t="shared" si="14"/>
-        <v>24695</v>
+        <f t="shared" si="23"/>
+        <v>17286.5</v>
       </c>
       <c r="E59">
         <v>1.93</v>
@@ -2536,29 +2549,29 @@
         <v>0.4</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="15"/>
-        <v>10598.71244635193</v>
+        <f t="shared" si="24"/>
+        <v>7419.0987124463518</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="16"/>
-        <v>13778.326180257511</v>
+        <f t="shared" si="25"/>
+        <v>9644.8283261802571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <f>B50*11</f>
-        <v>19811</v>
+        <f>B53*8</f>
+        <v>14408</v>
       </c>
       <c r="C60">
-        <f>C50*11</f>
-        <v>34518</v>
+        <f>C53*8</f>
+        <v>25104</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D69" si="17">(C60+B60)/2</f>
-        <v>27164.5</v>
+        <f t="shared" si="23"/>
+        <v>19756</v>
       </c>
       <c r="E60">
         <v>1.93</v>
@@ -2567,29 +2580,29 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" ref="G60:G69" si="18">D60/(E60+F60)</f>
-        <v>11658.583690987125</v>
+        <f t="shared" si="24"/>
+        <v>8478.9699570815446</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="16"/>
-        <v>15156.158798283263</v>
+        <f t="shared" si="25"/>
+        <v>11022.660944206009</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <f>B50*12</f>
-        <v>21612</v>
+        <f>B53*9</f>
+        <v>16209</v>
       </c>
       <c r="C61">
-        <f>C50*12</f>
-        <v>37656</v>
+        <f>C53*9</f>
+        <v>28242</v>
       </c>
       <c r="D61">
-        <f t="shared" si="17"/>
-        <v>29634</v>
+        <f t="shared" si="23"/>
+        <v>22225.5</v>
       </c>
       <c r="E61">
         <v>1.93</v>
@@ -2598,29 +2611,29 @@
         <v>0.4</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="18"/>
-        <v>12718.454935622318</v>
+        <f t="shared" si="24"/>
+        <v>9538.8412017167375</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="16"/>
-        <v>16533.991416309014</v>
+        <f t="shared" si="25"/>
+        <v>12400.493562231759</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <f>B50*13</f>
-        <v>23413</v>
+        <f>B53*10</f>
+        <v>18010</v>
       </c>
       <c r="C62">
-        <f>C50*13</f>
-        <v>40794</v>
+        <f>C53*10</f>
+        <v>31380</v>
       </c>
       <c r="D62">
-        <f t="shared" si="17"/>
-        <v>32103.5</v>
+        <f t="shared" si="23"/>
+        <v>24695</v>
       </c>
       <c r="E62">
         <v>1.93</v>
@@ -2629,29 +2642,29 @@
         <v>0.4</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
+        <v>10598.71244635193</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="25"/>
         <v>13778.326180257511</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="16"/>
-        <v>17911.824034334764</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <f>B50*14</f>
-        <v>25214</v>
+        <f>B53*11</f>
+        <v>19811</v>
       </c>
       <c r="C63">
-        <f>C50*14</f>
-        <v>43932</v>
+        <f>C53*11</f>
+        <v>34518</v>
       </c>
       <c r="D63">
-        <f t="shared" si="17"/>
-        <v>34573</v>
+        <f t="shared" ref="D63:D72" si="26">(C63+B63)/2</f>
+        <v>27164.5</v>
       </c>
       <c r="E63">
         <v>1.93</v>
@@ -2660,29 +2673,29 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="18"/>
-        <v>14838.197424892704</v>
+        <f t="shared" ref="G63:G72" si="27">D63/(E63+F63)</f>
+        <v>11658.583690987125</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="16"/>
-        <v>19289.656652360514</v>
+        <f t="shared" si="25"/>
+        <v>15156.158798283263</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <f>B50*15</f>
-        <v>27015</v>
+        <f>B53*12</f>
+        <v>21612</v>
       </c>
       <c r="C64">
-        <f>C50*15</f>
-        <v>47070</v>
+        <f>C53*12</f>
+        <v>37656</v>
       </c>
       <c r="D64">
-        <f t="shared" si="17"/>
-        <v>37042.5</v>
+        <f t="shared" si="26"/>
+        <v>29634</v>
       </c>
       <c r="E64">
         <v>1.93</v>
@@ -2691,29 +2704,29 @@
         <v>0.4</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="18"/>
-        <v>15898.068669527896</v>
+        <f t="shared" si="27"/>
+        <v>12718.454935622318</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="16"/>
-        <v>20667.489270386264</v>
+        <f t="shared" si="25"/>
+        <v>16533.991416309014</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <f>B50*16</f>
-        <v>28816</v>
+        <f>B53*13</f>
+        <v>23413</v>
       </c>
       <c r="C65">
-        <f>C50*16</f>
-        <v>50208</v>
+        <f>C53*13</f>
+        <v>40794</v>
       </c>
       <c r="D65">
-        <f t="shared" si="17"/>
-        <v>39512</v>
+        <f t="shared" si="26"/>
+        <v>32103.5</v>
       </c>
       <c r="E65">
         <v>1.93</v>
@@ -2722,29 +2735,29 @@
         <v>0.4</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="18"/>
-        <v>16957.939914163089</v>
+        <f t="shared" si="27"/>
+        <v>13778.326180257511</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="16"/>
-        <v>22045.321888412018</v>
+        <f t="shared" si="25"/>
+        <v>17911.824034334764</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <f>B50*17</f>
-        <v>30617</v>
+        <f>B53*14</f>
+        <v>25214</v>
       </c>
       <c r="C66">
-        <f>C50*17</f>
-        <v>53346</v>
+        <f>C53*14</f>
+        <v>43932</v>
       </c>
       <c r="D66">
-        <f t="shared" si="17"/>
-        <v>41981.5</v>
+        <f t="shared" si="26"/>
+        <v>34573</v>
       </c>
       <c r="E66">
         <v>1.93</v>
@@ -2753,29 +2766,29 @@
         <v>0.4</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="18"/>
-        <v>18017.811158798282</v>
+        <f t="shared" si="27"/>
+        <v>14838.197424892704</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="16"/>
-        <v>23423.154506437768</v>
+        <f t="shared" si="25"/>
+        <v>19289.656652360514</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <f>B50*18</f>
-        <v>32418</v>
+        <f>B53*15</f>
+        <v>27015</v>
       </c>
       <c r="C67">
-        <f>C50*18</f>
-        <v>56484</v>
+        <f>C53*15</f>
+        <v>47070</v>
       </c>
       <c r="D67">
-        <f t="shared" si="17"/>
-        <v>44451</v>
+        <f t="shared" si="26"/>
+        <v>37042.5</v>
       </c>
       <c r="E67">
         <v>1.93</v>
@@ -2784,29 +2797,29 @@
         <v>0.4</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="18"/>
-        <v>19077.682403433475</v>
+        <f t="shared" si="27"/>
+        <v>15898.068669527896</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="16"/>
-        <v>24800.987124463518</v>
+        <f t="shared" si="25"/>
+        <v>20667.489270386264</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <f>B50*19</f>
-        <v>34219</v>
+        <f>B53*16</f>
+        <v>28816</v>
       </c>
       <c r="C68">
-        <f>C50*19</f>
-        <v>59622</v>
+        <f>C53*16</f>
+        <v>50208</v>
       </c>
       <c r="D68">
-        <f t="shared" si="17"/>
-        <v>46920.5</v>
+        <f t="shared" si="26"/>
+        <v>39512</v>
       </c>
       <c r="E68">
         <v>1.93</v>
@@ -2815,29 +2828,29 @@
         <v>0.4</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="18"/>
-        <v>20137.553648068668</v>
+        <f t="shared" si="27"/>
+        <v>16957.939914163089</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="16"/>
-        <v>26178.819742489268</v>
+        <f t="shared" si="25"/>
+        <v>22045.321888412018</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <f>B50*20</f>
-        <v>36020</v>
+        <f>B53*17</f>
+        <v>30617</v>
       </c>
       <c r="C69">
-        <f>C50*20</f>
-        <v>62760</v>
+        <f>C53*17</f>
+        <v>53346</v>
       </c>
       <c r="D69">
-        <f t="shared" si="17"/>
-        <v>49390</v>
+        <f t="shared" si="26"/>
+        <v>41981.5</v>
       </c>
       <c r="E69">
         <v>1.93</v>
@@ -2846,29 +2859,29 @@
         <v>0.4</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="18"/>
-        <v>21197.424892703861</v>
+        <f t="shared" si="27"/>
+        <v>18017.811158798282</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="16"/>
-        <v>27556.652360515021</v>
+        <f t="shared" si="25"/>
+        <v>23423.154506437768</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <f>B50*21</f>
-        <v>37821</v>
+        <f>B53*18</f>
+        <v>32418</v>
       </c>
       <c r="C70">
-        <f>C50*21</f>
-        <v>65898</v>
+        <f>C53*18</f>
+        <v>56484</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D73" si="19">(C70+B70)/2</f>
-        <v>51859.5</v>
+        <f t="shared" si="26"/>
+        <v>44451</v>
       </c>
       <c r="E70">
         <v>1.93</v>
@@ -2877,29 +2890,29 @@
         <v>0.4</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" ref="G70:G73" si="20">D70/(E70+F70)</f>
-        <v>22257.296137339054</v>
+        <f t="shared" si="27"/>
+        <v>19077.682403433475</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="16"/>
-        <v>28934.484978540771</v>
+        <f t="shared" si="25"/>
+        <v>24800.987124463518</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <f>B50*22</f>
-        <v>39622</v>
+        <f>B53*19</f>
+        <v>34219</v>
       </c>
       <c r="C71">
-        <f>C50*22</f>
-        <v>69036</v>
+        <f>C53*19</f>
+        <v>59622</v>
       </c>
       <c r="D71">
-        <f t="shared" si="19"/>
-        <v>54329</v>
+        <f t="shared" si="26"/>
+        <v>46920.5</v>
       </c>
       <c r="E71">
         <v>1.93</v>
@@ -2908,29 +2921,29 @@
         <v>0.4</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="20"/>
-        <v>23317.16738197425</v>
+        <f t="shared" si="27"/>
+        <v>20137.553648068668</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="16"/>
-        <v>30312.317596566525</v>
+        <f t="shared" si="25"/>
+        <v>26178.819742489268</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <f>B50*24</f>
-        <v>43224</v>
+        <f>B53*20</f>
+        <v>36020</v>
       </c>
       <c r="C72">
-        <f>C50*24</f>
-        <v>75312</v>
+        <f>C53*20</f>
+        <v>62760</v>
       </c>
       <c r="D72">
-        <f t="shared" si="19"/>
-        <v>59268</v>
+        <f t="shared" si="26"/>
+        <v>49390</v>
       </c>
       <c r="E72">
         <v>1.93</v>
@@ -2939,29 +2952,29 @@
         <v>0.4</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="20"/>
-        <v>25436.909871244636</v>
+        <f t="shared" si="27"/>
+        <v>21197.424892703861</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="16"/>
-        <v>33067.982832618029</v>
+        <f t="shared" si="25"/>
+        <v>27556.652360515021</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <f>B50*25</f>
-        <v>45025</v>
+        <f>B53*21</f>
+        <v>37821</v>
       </c>
       <c r="C73">
-        <f>C50*25</f>
-        <v>78450</v>
+        <f>C53*21</f>
+        <v>65898</v>
       </c>
       <c r="D73">
-        <f t="shared" si="19"/>
-        <v>61737.5</v>
+        <f t="shared" ref="D73:D76" si="28">(C73+B73)/2</f>
+        <v>51859.5</v>
       </c>
       <c r="E73">
         <v>1.93</v>
@@ -2970,12 +2983,167 @@
         <v>0.4</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G73:G76" si="29">D73/(E73+F73)</f>
+        <v>22257.296137339054</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="25"/>
+        <v>28934.484978540771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <f>B53*22</f>
+        <v>39622</v>
+      </c>
+      <c r="C74">
+        <f>C53*22</f>
+        <v>69036</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="28"/>
+        <v>54329</v>
+      </c>
+      <c r="E74">
+        <v>1.93</v>
+      </c>
+      <c r="F74">
+        <v>0.4</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="29"/>
+        <v>23317.16738197425</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="25"/>
+        <v>30312.317596566525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <f>B53*23</f>
+        <v>41423</v>
+      </c>
+      <c r="C75">
+        <f>C53*23</f>
+        <v>72174</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="28"/>
+        <v>56798.5</v>
+      </c>
+      <c r="E75">
+        <v>1.93</v>
+      </c>
+      <c r="F75">
+        <v>0.4</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="29"/>
+        <v>24377.038626609443</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="25"/>
+        <v>31690.150214592275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <f>B53*24</f>
+        <v>43224</v>
+      </c>
+      <c r="C76">
+        <f>C53*24</f>
+        <v>75312</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="28"/>
+        <v>59268</v>
+      </c>
+      <c r="E76">
+        <v>1.93</v>
+      </c>
+      <c r="F76">
+        <v>0.4</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="29"/>
+        <v>25436.909871244636</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="25"/>
+        <v>33067.982832618029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <f>B53*25</f>
+        <v>45025</v>
+      </c>
+      <c r="C77">
+        <f>C53*25</f>
+        <v>78450</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77" si="30">(C77+B77)/2</f>
+        <v>61737.5</v>
+      </c>
+      <c r="E77">
+        <v>1.93</v>
+      </c>
+      <c r="F77">
+        <v>0.4</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" ref="G77" si="31">D77/(E77+F77)</f>
         <v>26496.781115879829</v>
       </c>
-      <c r="H73" s="3">
-        <f t="shared" si="16"/>
+      <c r="H77" s="3">
+        <f t="shared" ref="H77" si="32">G77*1.3</f>
         <v>34445.815450643779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <f>B53*26</f>
+        <v>46826</v>
+      </c>
+      <c r="C78">
+        <f>C53*26</f>
+        <v>81588</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78" si="33">(C78+B78)/2</f>
+        <v>64207</v>
+      </c>
+      <c r="E78">
+        <v>1.93</v>
+      </c>
+      <c r="F78">
+        <v>0.4</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" ref="G78" si="34">D78/(E78+F78)</f>
+        <v>27556.652360515021</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" ref="H78" si="35">G78*1.3</f>
+        <v>35823.648068669529</v>
       </c>
     </row>
   </sheetData>
